--- a/tests/data/experiments/lr-xlsx-input-files/features.xlsx
+++ b/tests/data/experiments/lr-xlsx-input-files/features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>FEATURE1</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>FEATURE8</t>
-  </si>
-  <si>
-    <t>FEATURE9</t>
   </si>
   <si>
     <t>FEATURE10</t>
@@ -425,23 +422,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -452,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -463,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -485,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -496,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -518,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,18 +537,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-xlsx-input-files/features.xlsx
+++ b/tests/data/experiments/lr-xlsx-input-files/features.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloukina/Tools/rsmtool/rsmtool/tests/data/experiments/lr-xlsx-input-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmadnani/work/rsmtool/tests/data/experiments/lr-xlsx-input-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>FEATURE1</t>
   </si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>FEATURE8</t>
-  </si>
-  <si>
-    <t>FEATURE10</t>
   </si>
   <si>
     <t>sign</t>
@@ -422,23 +422,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -526,18 +526,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
